--- a/data/extracted_data/raw_round2/data/Plakas_etal_2008_Fig3.xlsx
+++ b/data/extracted_data/raw_round2/data/Plakas_etal_2008_Fig3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{697C4A94-3561-E243-A416-3A3D17202CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAA0C246-ABF7-AA4F-8FBB-EBFBB42FDA49}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{697C4A94-3561-E243-A416-3A3D17202CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{604B5B08-12BD-4A4B-8B35-2D4F962AE416}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{6792C632-7CCD-2A46-BA5F-A21A86715F86}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{6792C632-7CCD-2A46-BA5F-A21A86715F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="12">
   <si>
     <t>cytotoxicity assay</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>event</t>
+  </si>
+  <si>
+    <t>Uptake</t>
   </si>
 </sst>
 </file>
@@ -122,6 +125,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07BF627-C020-944C-A5C3-410D97B5432C}">
   <dimension ref="A1:F236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>37972</v>
@@ -478,8 +485,11 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>38008</v>
@@ -496,8 +506,11 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>38020</v>
@@ -514,8 +527,11 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>38036</v>
@@ -532,6 +548,9 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -550,6 +569,9 @@
       <c r="A7" t="s">
         <v>0</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -568,6 +590,9 @@
       <c r="A8" t="s">
         <v>0</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -586,6 +611,9 @@
       <c r="A9" t="s">
         <v>0</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -604,6 +632,9 @@
       <c r="A10" t="s">
         <v>0</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -622,6 +653,9 @@
       <c r="A11" t="s">
         <v>0</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
@@ -640,6 +674,9 @@
       <c r="A12" t="s">
         <v>0</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -658,6 +695,9 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
@@ -676,6 +716,9 @@
       <c r="A14" t="s">
         <v>0</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -694,6 +737,9 @@
       <c r="A15" t="s">
         <v>0</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
@@ -737,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1">
         <v>38379</v>
@@ -754,8 +800,11 @@
       <c r="A18" t="s">
         <v>0</v>
       </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1">
         <v>38387</v>
@@ -772,8 +821,11 @@
       <c r="A19" t="s">
         <v>0</v>
       </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1">
         <v>38391</v>
@@ -790,8 +842,11 @@
       <c r="A20" t="s">
         <v>0</v>
       </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1">
         <v>38399</v>
@@ -808,8 +863,11 @@
       <c r="A21" t="s">
         <v>0</v>
       </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1">
         <v>38407</v>
@@ -826,15 +884,18 @@
       <c r="A22" t="s">
         <v>0</v>
       </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1">
-        <v>38407</v>
+        <v>38408</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F22">
         <v>538.63278077676296</v>
@@ -844,8 +905,11 @@
       <c r="A23" t="s">
         <v>0</v>
       </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1">
         <v>38415</v>
@@ -862,6 +926,9 @@
       <c r="A24" t="s">
         <v>0</v>
       </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
@@ -880,6 +947,9 @@
       <c r="A25" t="s">
         <v>0</v>
       </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
@@ -898,6 +968,9 @@
       <c r="A26" t="s">
         <v>0</v>
       </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
@@ -916,6 +989,9 @@
       <c r="A27" t="s">
         <v>0</v>
       </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
@@ -934,6 +1010,9 @@
       <c r="A28" t="s">
         <v>0</v>
       </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
@@ -952,6 +1031,9 @@
       <c r="A29" t="s">
         <v>0</v>
       </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
@@ -970,6 +1052,9 @@
       <c r="A30" t="s">
         <v>0</v>
       </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
@@ -988,6 +1073,9 @@
       <c r="A31" t="s">
         <v>0</v>
       </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1">
         <v>38495</v>
@@ -1048,8 +1136,11 @@
       <c r="A34" t="s">
         <v>0</v>
       </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1">
         <v>38511</v>
@@ -1066,8 +1157,11 @@
       <c r="A35" t="s">
         <v>0</v>
       </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1">
         <v>38523</v>
@@ -1084,15 +1178,18 @@
       <c r="A36" t="s">
         <v>0</v>
       </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1">
-        <v>38523</v>
+        <v>38524</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F36">
         <v>366.33306262838499</v>
@@ -1101,6 +1198,9 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -1120,15 +1220,18 @@
       <c r="A38" t="s">
         <v>0</v>
       </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="1">
-        <v>38540</v>
+        <v>38541</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F38">
         <v>314.22395261071</v>
@@ -1137,6 +1240,9 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -1156,15 +1262,18 @@
       <c r="A40" t="s">
         <v>0</v>
       </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="1">
-        <v>38552</v>
+        <v>38553</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F40">
         <v>194.50628194716401</v>
@@ -1173,6 +1282,9 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -1192,8 +1304,11 @@
       <c r="A42" t="s">
         <v>0</v>
       </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D42" s="1">
         <v>38580</v>
@@ -1210,15 +1325,18 @@
       <c r="A43" t="s">
         <v>0</v>
       </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D43" s="1">
-        <v>38580</v>
+        <v>38581</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F43">
         <v>163.141929011608</v>
@@ -1227,6 +1345,9 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -1246,6 +1367,9 @@
       <c r="A45" t="s">
         <v>0</v>
       </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
@@ -1264,6 +1388,9 @@
       <c r="A46" t="s">
         <v>0</v>
       </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
@@ -1282,6 +1409,9 @@
       <c r="A47" t="s">
         <v>0</v>
       </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
       <c r="C47" t="s">
         <v>9</v>
       </c>
@@ -1300,6 +1430,9 @@
       <c r="A48" t="s">
         <v>0</v>
       </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
       <c r="C48" t="s">
         <v>9</v>
       </c>
@@ -1318,6 +1451,9 @@
       <c r="A49" t="s">
         <v>0</v>
       </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
@@ -1336,6 +1472,9 @@
       <c r="A50" t="s">
         <v>0</v>
       </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
       <c r="C50" t="s">
         <v>9</v>
       </c>
@@ -1354,6 +1493,9 @@
       <c r="A51" t="s">
         <v>0</v>
       </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
@@ -1372,6 +1514,9 @@
       <c r="A52" t="s">
         <v>0</v>
       </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
@@ -1390,6 +1535,9 @@
       <c r="A53" t="s">
         <v>0</v>
       </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
@@ -1408,6 +1556,9 @@
       <c r="A54" t="s">
         <v>0</v>
       </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
@@ -1426,6 +1577,9 @@
       <c r="A55" t="s">
         <v>0</v>
       </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
       <c r="C55" t="s">
         <v>9</v>
       </c>
@@ -1444,6 +1598,9 @@
       <c r="A56" t="s">
         <v>0</v>
       </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
       <c r="C56" t="s">
         <v>9</v>
       </c>
@@ -1462,6 +1619,9 @@
       <c r="A57" t="s">
         <v>0</v>
       </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
@@ -1480,8 +1640,11 @@
       <c r="A58" t="s">
         <v>1</v>
       </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1">
         <v>37972</v>
@@ -1498,8 +1661,11 @@
       <c r="A59" t="s">
         <v>1</v>
       </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D59" s="1">
         <v>38008</v>
@@ -1516,8 +1682,11 @@
       <c r="A60" t="s">
         <v>1</v>
       </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D60" s="1">
         <v>38024</v>
@@ -1534,6 +1703,9 @@
       <c r="A61" t="s">
         <v>1</v>
       </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
       <c r="C61" t="s">
         <v>9</v>
       </c>
@@ -1552,6 +1724,9 @@
       <c r="A62" t="s">
         <v>1</v>
       </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
@@ -1570,6 +1745,9 @@
       <c r="A63" t="s">
         <v>1</v>
       </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
@@ -1588,6 +1766,9 @@
       <c r="A64" t="s">
         <v>1</v>
       </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
       <c r="C64" t="s">
         <v>9</v>
       </c>
@@ -1606,6 +1787,9 @@
       <c r="A65" t="s">
         <v>1</v>
       </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
       <c r="C65" t="s">
         <v>9</v>
       </c>
@@ -1624,6 +1808,9 @@
       <c r="A66" t="s">
         <v>1</v>
       </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
@@ -1642,6 +1829,9 @@
       <c r="A67" t="s">
         <v>1</v>
       </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
       <c r="C67" t="s">
         <v>9</v>
       </c>
@@ -1660,6 +1850,9 @@
       <c r="A68" t="s">
         <v>1</v>
       </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
       <c r="C68" t="s">
         <v>9</v>
       </c>
@@ -1678,6 +1871,9 @@
       <c r="A69" t="s">
         <v>1</v>
       </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
       <c r="C69" t="s">
         <v>9</v>
       </c>
@@ -1696,6 +1892,9 @@
       <c r="A70" t="s">
         <v>1</v>
       </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
       <c r="C70" t="s">
         <v>9</v>
       </c>
@@ -1714,6 +1913,9 @@
       <c r="A71" t="s">
         <v>1</v>
       </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
       <c r="C71" t="s">
         <v>9</v>
       </c>
@@ -1732,6 +1934,9 @@
       <c r="A72" t="s">
         <v>1</v>
       </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
       <c r="C72" t="s">
         <v>9</v>
       </c>
@@ -1750,6 +1955,9 @@
       <c r="A73" t="s">
         <v>1</v>
       </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
       <c r="C73" t="s">
         <v>9</v>
       </c>
@@ -1768,6 +1976,9 @@
       <c r="A74" t="s">
         <v>1</v>
       </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
@@ -1786,8 +1997,11 @@
       <c r="A75" t="s">
         <v>1</v>
       </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D75" s="1">
         <v>38361</v>
@@ -1804,8 +2018,11 @@
       <c r="A76" t="s">
         <v>1</v>
       </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D76" s="1">
         <v>38377</v>
@@ -1822,8 +2039,11 @@
       <c r="A77" t="s">
         <v>1</v>
       </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D77" s="1">
         <v>38385</v>
@@ -1840,8 +2060,11 @@
       <c r="A78" t="s">
         <v>1</v>
       </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D78" s="1">
         <v>38393</v>
@@ -1858,8 +2081,11 @@
       <c r="A79" t="s">
         <v>1</v>
       </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D79" s="1">
         <v>38397</v>
@@ -1876,8 +2102,11 @@
       <c r="A80" t="s">
         <v>1</v>
       </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D80" s="1">
         <v>38405</v>
@@ -1894,6 +2123,9 @@
       <c r="A81" t="s">
         <v>1</v>
       </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
@@ -1912,6 +2144,9 @@
       <c r="A82" t="s">
         <v>1</v>
       </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
@@ -1930,6 +2165,9 @@
       <c r="A83" t="s">
         <v>1</v>
       </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
@@ -1948,6 +2186,9 @@
       <c r="A84" t="s">
         <v>1</v>
       </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
@@ -1966,6 +2207,9 @@
       <c r="A85" t="s">
         <v>1</v>
       </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
@@ -1984,6 +2228,9 @@
       <c r="A86" t="s">
         <v>1</v>
       </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
       <c r="C86" t="s">
         <v>9</v>
       </c>
@@ -2002,6 +2249,9 @@
       <c r="A87" t="s">
         <v>1</v>
       </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
@@ -2020,6 +2270,9 @@
       <c r="A88" t="s">
         <v>1</v>
       </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
@@ -2038,6 +2291,9 @@
       <c r="A89" t="s">
         <v>1</v>
       </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
       <c r="C89" t="s">
         <v>9</v>
       </c>
@@ -2056,6 +2312,9 @@
       <c r="A90" t="s">
         <v>1</v>
       </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
@@ -2074,6 +2333,9 @@
       <c r="A91" t="s">
         <v>1</v>
       </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
       <c r="C91" t="s">
         <v>9</v>
       </c>
@@ -2092,8 +2354,11 @@
       <c r="A92" t="s">
         <v>1</v>
       </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D92" s="1">
         <v>38493</v>
@@ -2110,8 +2375,11 @@
       <c r="A93" t="s">
         <v>1</v>
       </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D93" s="1">
         <v>38509</v>
@@ -2128,8 +2396,11 @@
       <c r="A94" t="s">
         <v>1</v>
       </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D94" s="1">
         <v>38521</v>
@@ -2146,15 +2417,18 @@
       <c r="A95" t="s">
         <v>1</v>
       </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D95" s="1">
-        <v>38521</v>
+        <v>38522</v>
       </c>
       <c r="E95">
         <f t="shared" si="2"/>
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F95">
         <v>9.8340826375508392</v>
@@ -2164,8 +2438,11 @@
       <c r="A96" t="s">
         <v>1</v>
       </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D96" s="1">
         <v>38537</v>
@@ -2182,15 +2459,18 @@
       <c r="A97" t="s">
         <v>1</v>
       </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D97" s="1">
-        <v>38537</v>
+        <v>38538</v>
       </c>
       <c r="E97">
         <f t="shared" si="2"/>
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F97">
         <v>11.3066438307286</v>
@@ -2200,8 +2480,11 @@
       <c r="A98" t="s">
         <v>1</v>
       </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D98" s="1">
         <v>38553</v>
@@ -2218,15 +2501,18 @@
       <c r="A99" t="s">
         <v>1</v>
       </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D99" s="1">
-        <v>38553</v>
+        <v>38554</v>
       </c>
       <c r="E99">
         <f t="shared" si="3"/>
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F99">
         <v>11.565332191536401</v>
@@ -2235,6 +2521,9 @@
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
@@ -2254,15 +2543,18 @@
       <c r="A101" t="s">
         <v>1</v>
       </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
       <c r="C101" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="1">
-        <v>38565</v>
+        <v>38566</v>
       </c>
       <c r="E101">
         <f t="shared" si="3"/>
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F101">
         <v>5.6683079997145498</v>
@@ -2271,6 +2563,9 @@
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -2290,15 +2585,18 @@
       <c r="A103" t="s">
         <v>1</v>
       </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D103" s="1">
-        <v>38577</v>
+        <v>38578</v>
       </c>
       <c r="E103">
         <f t="shared" si="3"/>
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F103">
         <v>4.1065439234995997</v>
@@ -2307,6 +2605,9 @@
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
@@ -2326,6 +2627,9 @@
       <c r="A105" t="s">
         <v>1</v>
       </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
       <c r="C105" t="s">
         <v>9</v>
       </c>
@@ -2344,6 +2648,9 @@
       <c r="A106" t="s">
         <v>1</v>
       </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
       <c r="C106" t="s">
         <v>9</v>
       </c>
@@ -2362,6 +2669,9 @@
       <c r="A107" t="s">
         <v>1</v>
       </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
       <c r="C107" t="s">
         <v>9</v>
       </c>
@@ -2380,6 +2690,9 @@
       <c r="A108" t="s">
         <v>1</v>
       </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
       <c r="C108" t="s">
         <v>9</v>
       </c>
@@ -2398,6 +2711,9 @@
       <c r="A109" t="s">
         <v>1</v>
       </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
       <c r="C109" t="s">
         <v>9</v>
       </c>
@@ -2416,6 +2732,9 @@
       <c r="A110" t="s">
         <v>1</v>
       </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
       <c r="C110" t="s">
         <v>9</v>
       </c>
@@ -2434,6 +2753,9 @@
       <c r="A111" t="s">
         <v>1</v>
       </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
       <c r="C111" t="s">
         <v>9</v>
       </c>
@@ -2452,6 +2774,9 @@
       <c r="A112" t="s">
         <v>1</v>
       </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
       <c r="C112" t="s">
         <v>9</v>
       </c>
@@ -2470,6 +2795,9 @@
       <c r="A113" t="s">
         <v>1</v>
       </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
       <c r="C113" t="s">
         <v>9</v>
       </c>
@@ -2488,6 +2816,9 @@
       <c r="A114" t="s">
         <v>1</v>
       </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
       <c r="C114" t="s">
         <v>9</v>
       </c>
@@ -2506,6 +2837,9 @@
       <c r="A115" t="s">
         <v>1</v>
       </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
       <c r="C115" t="s">
         <v>9</v>
       </c>
@@ -2524,6 +2858,9 @@
       <c r="A116" t="s">
         <v>1</v>
       </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
       <c r="C116" t="s">
         <v>9</v>
       </c>
@@ -2542,6 +2879,9 @@
       <c r="A117" t="s">
         <v>1</v>
       </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
       <c r="C117" t="s">
         <v>9</v>
       </c>
@@ -2560,8 +2900,11 @@
       <c r="A118" t="s">
         <v>2</v>
       </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D118" s="1">
         <v>37972</v>
@@ -2578,8 +2921,11 @@
       <c r="A119" t="s">
         <v>2</v>
       </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D119" s="1">
         <v>38008</v>
@@ -2596,8 +2942,11 @@
       <c r="A120" t="s">
         <v>2</v>
       </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D120" s="1">
         <v>38020</v>
@@ -2614,6 +2963,9 @@
       <c r="A121" t="s">
         <v>2</v>
       </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
       <c r="C121" t="s">
         <v>9</v>
       </c>
@@ -2632,6 +2984,9 @@
       <c r="A122" t="s">
         <v>2</v>
       </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
       <c r="C122" t="s">
         <v>9</v>
       </c>
@@ -2650,6 +3005,9 @@
       <c r="A123" t="s">
         <v>2</v>
       </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
       <c r="C123" t="s">
         <v>9</v>
       </c>
@@ -2668,6 +3026,9 @@
       <c r="A124" t="s">
         <v>2</v>
       </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
       <c r="C124" t="s">
         <v>9</v>
       </c>
@@ -2686,6 +3047,9 @@
       <c r="A125" t="s">
         <v>2</v>
       </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
@@ -2704,6 +3068,9 @@
       <c r="A126" t="s">
         <v>2</v>
       </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
       <c r="C126" t="s">
         <v>9</v>
       </c>
@@ -2722,6 +3089,9 @@
       <c r="A127" t="s">
         <v>2</v>
       </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
       <c r="C127" t="s">
         <v>9</v>
       </c>
@@ -2740,6 +3110,9 @@
       <c r="A128" t="s">
         <v>2</v>
       </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
       <c r="C128" t="s">
         <v>9</v>
       </c>
@@ -2758,6 +3131,9 @@
       <c r="A129" t="s">
         <v>2</v>
       </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
       <c r="C129" t="s">
         <v>9</v>
       </c>
@@ -2776,6 +3152,9 @@
       <c r="A130" t="s">
         <v>2</v>
       </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
       <c r="C130" t="s">
         <v>9</v>
       </c>
@@ -2794,6 +3173,9 @@
       <c r="A131" t="s">
         <v>2</v>
       </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
       <c r="C131" t="s">
         <v>9</v>
       </c>
@@ -2812,6 +3194,9 @@
       <c r="A132" t="s">
         <v>2</v>
       </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
       <c r="C132" t="s">
         <v>9</v>
       </c>
@@ -2830,6 +3215,9 @@
       <c r="A133" t="s">
         <v>2</v>
       </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
       <c r="C133" t="s">
         <v>9</v>
       </c>
@@ -2848,6 +3236,9 @@
       <c r="A134" t="s">
         <v>2</v>
       </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
       <c r="C134" t="s">
         <v>9</v>
       </c>
@@ -2866,6 +3257,9 @@
       <c r="A135" t="s">
         <v>2</v>
       </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
       <c r="C135" t="s">
         <v>9</v>
       </c>
@@ -2884,8 +3278,11 @@
       <c r="A136" t="s">
         <v>2</v>
       </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D136" s="1">
         <v>38379</v>
@@ -2902,8 +3299,11 @@
       <c r="A137" t="s">
         <v>2</v>
       </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D137" s="1">
         <v>38387</v>
@@ -2920,8 +3320,11 @@
       <c r="A138" t="s">
         <v>2</v>
       </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D138" s="1">
         <v>38391</v>
@@ -2938,8 +3341,11 @@
       <c r="A139" t="s">
         <v>2</v>
       </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D139" s="1">
         <v>38399</v>
@@ -2956,8 +3362,11 @@
       <c r="A140" t="s">
         <v>2</v>
       </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D140" s="1">
         <v>38407</v>
@@ -2974,8 +3383,11 @@
       <c r="A141" t="s">
         <v>2</v>
       </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D141" s="1">
         <v>38407</v>
@@ -2992,6 +3404,9 @@
       <c r="A142" t="s">
         <v>2</v>
       </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
       <c r="C142" t="s">
         <v>9</v>
       </c>
@@ -3010,6 +3425,9 @@
       <c r="A143" t="s">
         <v>2</v>
       </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
       <c r="C143" t="s">
         <v>9</v>
       </c>
@@ -3028,6 +3446,9 @@
       <c r="A144" t="s">
         <v>2</v>
       </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
       <c r="C144" t="s">
         <v>9</v>
       </c>
@@ -3046,6 +3467,9 @@
       <c r="A145" t="s">
         <v>2</v>
       </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
       <c r="C145" t="s">
         <v>9</v>
       </c>
@@ -3064,6 +3488,9 @@
       <c r="A146" t="s">
         <v>2</v>
       </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
       <c r="C146" t="s">
         <v>9</v>
       </c>
@@ -3082,6 +3509,9 @@
       <c r="A147" t="s">
         <v>2</v>
       </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
       <c r="C147" t="s">
         <v>9</v>
       </c>
@@ -3100,15 +3530,18 @@
       <c r="A148" t="s">
         <v>2</v>
       </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
       <c r="C148" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="1">
-        <v>38451</v>
+        <v>38452</v>
       </c>
       <c r="E148">
         <f t="shared" si="4"/>
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F148">
         <v>1.56069364161848</v>
@@ -3116,6 +3549,9 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149">
         <v>2</v>
       </c>
       <c r="C149" t="s">
@@ -3136,6 +3572,9 @@
       <c r="A150" t="s">
         <v>2</v>
       </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
       <c r="C150" t="s">
         <v>9</v>
       </c>
@@ -3154,8 +3593,11 @@
       <c r="A151" t="s">
         <v>2</v>
       </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D151" s="1">
         <v>38479</v>
@@ -3172,8 +3614,11 @@
       <c r="A152" t="s">
         <v>2</v>
       </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D152" s="1">
         <v>38495</v>
@@ -3190,8 +3635,11 @@
       <c r="A153" t="s">
         <v>2</v>
       </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D153" s="1">
         <v>38511</v>
@@ -3208,6 +3656,9 @@
       <c r="A154" t="s">
         <v>2</v>
       </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
       <c r="C154" t="s">
         <v>9</v>
       </c>
@@ -3226,6 +3677,9 @@
       <c r="A155" t="s">
         <v>2</v>
       </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
       <c r="C155" t="s">
         <v>9</v>
       </c>
@@ -3244,6 +3698,9 @@
       <c r="A156" t="s">
         <v>2</v>
       </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
       <c r="C156" t="s">
         <v>9</v>
       </c>
@@ -3262,6 +3719,9 @@
       <c r="A157" t="s">
         <v>2</v>
       </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
       <c r="C157" t="s">
         <v>9</v>
       </c>
@@ -3280,6 +3740,9 @@
       <c r="A158" t="s">
         <v>2</v>
       </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
       <c r="C158" t="s">
         <v>9</v>
       </c>
@@ -3298,6 +3761,9 @@
       <c r="A159" t="s">
         <v>2</v>
       </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
       <c r="C159" t="s">
         <v>9</v>
       </c>
@@ -3316,15 +3782,18 @@
       <c r="A160" t="s">
         <v>2</v>
       </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
       <c r="C160" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="1">
-        <v>38564</v>
+        <v>38565</v>
       </c>
       <c r="E160">
         <f t="shared" si="4"/>
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F160">
         <v>12.4855491329479</v>
@@ -3334,8 +3803,11 @@
       <c r="A161" t="s">
         <v>2</v>
       </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D161" s="1">
         <v>38580</v>
@@ -3352,15 +3824,18 @@
       <c r="A162" t="s">
         <v>2</v>
       </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D162" s="1">
-        <v>38580</v>
+        <v>38581</v>
       </c>
       <c r="E162">
         <f t="shared" ref="E162:E176" si="5">$D162-$D$2</f>
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F162">
         <v>5.2023121387283302</v>
@@ -3369,6 +3844,9 @@
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>2</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
       </c>
       <c r="C163" t="s">
         <v>9</v>
@@ -3388,6 +3866,9 @@
       <c r="A164" t="s">
         <v>2</v>
       </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
       <c r="C164" t="s">
         <v>9</v>
       </c>
@@ -3406,6 +3887,9 @@
       <c r="A165" t="s">
         <v>2</v>
       </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
       <c r="C165" t="s">
         <v>9</v>
       </c>
@@ -3424,6 +3908,9 @@
       <c r="A166" t="s">
         <v>2</v>
       </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
       <c r="C166" t="s">
         <v>9</v>
       </c>
@@ -3442,6 +3929,9 @@
       <c r="A167" t="s">
         <v>2</v>
       </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
       <c r="C167" t="s">
         <v>9</v>
       </c>
@@ -3460,6 +3950,9 @@
       <c r="A168" t="s">
         <v>2</v>
       </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
       <c r="C168" t="s">
         <v>9</v>
       </c>
@@ -3478,6 +3971,9 @@
       <c r="A169" t="s">
         <v>2</v>
       </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
       <c r="C169" t="s">
         <v>9</v>
       </c>
@@ -3496,6 +3992,9 @@
       <c r="A170" t="s">
         <v>2</v>
       </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
       <c r="C170" t="s">
         <v>9</v>
       </c>
@@ -3514,6 +4013,9 @@
       <c r="A171" t="s">
         <v>2</v>
       </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
       <c r="C171" t="s">
         <v>9</v>
       </c>
@@ -3532,6 +4034,9 @@
       <c r="A172" t="s">
         <v>2</v>
       </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
       <c r="C172" t="s">
         <v>9</v>
       </c>
@@ -3550,6 +4055,9 @@
       <c r="A173" t="s">
         <v>2</v>
       </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
       <c r="C173" t="s">
         <v>9</v>
       </c>
@@ -3568,6 +4076,9 @@
       <c r="A174" t="s">
         <v>2</v>
       </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
       <c r="C174" t="s">
         <v>9</v>
       </c>
@@ -3586,6 +4097,9 @@
       <c r="A175" t="s">
         <v>2</v>
       </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
       <c r="C175" t="s">
         <v>9</v>
       </c>
@@ -3604,6 +4118,9 @@
       <c r="A176" t="s">
         <v>2</v>
       </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
       <c r="C176" t="s">
         <v>9</v>
       </c>
@@ -3622,8 +4139,11 @@
       <c r="A177" t="s">
         <v>3</v>
       </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D177" s="1">
         <v>37968</v>
@@ -3640,8 +4160,11 @@
       <c r="A178" t="s">
         <v>3</v>
       </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D178" s="1">
         <v>38004</v>
@@ -3658,8 +4181,11 @@
       <c r="A179" t="s">
         <v>3</v>
       </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D179" s="1">
         <v>38017</v>
@@ -3676,6 +4202,9 @@
       <c r="A180" t="s">
         <v>3</v>
       </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
       <c r="C180" t="s">
         <v>9</v>
       </c>
@@ -3694,6 +4223,9 @@
       <c r="A181" t="s">
         <v>3</v>
       </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
       <c r="C181" t="s">
         <v>9</v>
       </c>
@@ -3712,6 +4244,9 @@
       <c r="A182" t="s">
         <v>3</v>
       </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
       <c r="C182" t="s">
         <v>9</v>
       </c>
@@ -3730,6 +4265,9 @@
       <c r="A183" t="s">
         <v>3</v>
       </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
       <c r="C183" t="s">
         <v>9</v>
       </c>
@@ -3748,6 +4286,9 @@
       <c r="A184" t="s">
         <v>3</v>
       </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
       <c r="C184" t="s">
         <v>9</v>
       </c>
@@ -3766,6 +4307,9 @@
       <c r="A185" t="s">
         <v>3</v>
       </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
       <c r="C185" t="s">
         <v>9</v>
       </c>
@@ -3784,6 +4328,9 @@
       <c r="A186" t="s">
         <v>3</v>
       </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
       <c r="C186" t="s">
         <v>9</v>
       </c>
@@ -3802,6 +4349,9 @@
       <c r="A187" t="s">
         <v>3</v>
       </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
       <c r="C187" t="s">
         <v>9</v>
       </c>
@@ -3820,6 +4370,9 @@
       <c r="A188" t="s">
         <v>3</v>
       </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
       <c r="C188" t="s">
         <v>9</v>
       </c>
@@ -3838,6 +4391,9 @@
       <c r="A189" t="s">
         <v>3</v>
       </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
       <c r="C189" t="s">
         <v>9</v>
       </c>
@@ -3856,6 +4412,9 @@
       <c r="A190" t="s">
         <v>3</v>
       </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
       <c r="C190" t="s">
         <v>9</v>
       </c>
@@ -3874,6 +4433,9 @@
       <c r="A191" t="s">
         <v>3</v>
       </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
       <c r="C191" t="s">
         <v>9</v>
       </c>
@@ -3892,6 +4454,9 @@
       <c r="A192" t="s">
         <v>3</v>
       </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
       <c r="C192" t="s">
         <v>9</v>
       </c>
@@ -3910,6 +4475,9 @@
       <c r="A193" t="s">
         <v>3</v>
       </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
       <c r="C193" t="s">
         <v>9</v>
       </c>
@@ -3928,8 +4496,11 @@
       <c r="A194" t="s">
         <v>3</v>
       </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D194" s="1">
         <v>38363</v>
@@ -3946,8 +4517,11 @@
       <c r="A195" t="s">
         <v>3</v>
       </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D195" s="1">
         <v>38375</v>
@@ -3964,8 +4538,11 @@
       <c r="A196" t="s">
         <v>3</v>
       </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D196" s="1">
         <v>38384</v>
@@ -3982,8 +4559,11 @@
       <c r="A197" t="s">
         <v>3</v>
       </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D197" s="1">
         <v>38388</v>
@@ -4000,8 +4580,11 @@
       <c r="A198" t="s">
         <v>3</v>
       </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D198" s="1">
         <v>38396</v>
@@ -4018,8 +4601,11 @@
       <c r="A199" t="s">
         <v>3</v>
       </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D199" s="1">
         <v>38405</v>
@@ -4036,15 +4622,18 @@
       <c r="A200" t="s">
         <v>3</v>
       </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D200" s="1">
-        <v>38405</v>
+        <v>38406</v>
       </c>
       <c r="E200">
         <f t="shared" si="6"/>
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F200">
         <v>60.693641618497097</v>
@@ -4053,6 +4642,9 @@
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>3</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
       </c>
       <c r="C201" t="s">
         <v>9</v>
@@ -4072,6 +4664,9 @@
       <c r="A202" t="s">
         <v>3</v>
       </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
       <c r="C202" t="s">
         <v>9</v>
       </c>
@@ -4090,6 +4685,9 @@
       <c r="A203" t="s">
         <v>3</v>
       </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
       <c r="C203" t="s">
         <v>9</v>
       </c>
@@ -4108,6 +4706,9 @@
       <c r="A204" t="s">
         <v>3</v>
       </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
       <c r="C204" t="s">
         <v>9</v>
       </c>
@@ -4126,6 +4727,9 @@
       <c r="A205" t="s">
         <v>3</v>
       </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
       <c r="C205" t="s">
         <v>9</v>
       </c>
@@ -4144,8 +4748,11 @@
       <c r="A206" t="s">
         <v>3</v>
       </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D206" s="1">
         <v>38444</v>
@@ -4162,8 +4769,11 @@
       <c r="A207" t="s">
         <v>3</v>
       </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D207" s="1">
         <v>38456</v>
@@ -4180,8 +4790,11 @@
       <c r="A208" t="s">
         <v>3</v>
       </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D208" s="1">
         <v>38460</v>
@@ -4198,8 +4811,11 @@
       <c r="A209" t="s">
         <v>3</v>
       </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D209" s="1">
         <v>38468</v>
@@ -4216,8 +4832,11 @@
       <c r="A210" t="s">
         <v>3</v>
       </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D210" s="1">
         <v>38480</v>
@@ -4234,8 +4853,11 @@
       <c r="A211" t="s">
         <v>3</v>
       </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D211" s="1">
         <v>38492</v>
@@ -4252,8 +4874,11 @@
       <c r="A212" t="s">
         <v>3</v>
       </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D212" s="1">
         <v>38510</v>
@@ -4270,6 +4895,9 @@
       <c r="A213" t="s">
         <v>3</v>
       </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
       <c r="C213" t="s">
         <v>9</v>
       </c>
@@ -4288,6 +4916,9 @@
       <c r="A214" t="s">
         <v>3</v>
       </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
       <c r="C214" t="s">
         <v>9</v>
       </c>
@@ -4306,6 +4937,9 @@
       <c r="A215" t="s">
         <v>3</v>
       </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
       <c r="C215" t="s">
         <v>9</v>
       </c>
@@ -4324,15 +4958,18 @@
       <c r="A216" t="s">
         <v>3</v>
       </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
       <c r="C216" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="1">
-        <v>38538</v>
+        <v>38539</v>
       </c>
       <c r="E216">
         <f t="shared" si="6"/>
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F216">
         <v>64.739884393063505</v>
@@ -4340,6 +4977,9 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>3</v>
+      </c>
+      <c r="B217">
         <v>3</v>
       </c>
       <c r="C217" t="s">
@@ -4360,6 +5000,9 @@
       <c r="A218" t="s">
         <v>3</v>
       </c>
+      <c r="B218">
+        <v>3</v>
+      </c>
       <c r="C218" t="s">
         <v>9</v>
       </c>
@@ -4378,6 +5021,9 @@
       <c r="A219" t="s">
         <v>3</v>
       </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
       <c r="C219" t="s">
         <v>9</v>
       </c>
@@ -4396,15 +5042,18 @@
       <c r="A220" t="s">
         <v>3</v>
       </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
       <c r="C220" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="1">
-        <v>38565</v>
+        <v>38566</v>
       </c>
       <c r="E220">
         <f t="shared" si="6"/>
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F220">
         <v>35.260115606936402</v>
@@ -4412,6 +5061,9 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>3</v>
+      </c>
+      <c r="B221">
         <v>3</v>
       </c>
       <c r="C221" t="s">
@@ -4432,15 +5084,18 @@
       <c r="A222" t="s">
         <v>3</v>
       </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D222" s="1">
-        <v>38577</v>
+        <v>38578</v>
       </c>
       <c r="E222">
         <f>$D222-$D$177</f>
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F222">
         <v>19.653179190751398</v>
@@ -4449,6 +5104,9 @@
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>3</v>
+      </c>
+      <c r="B223">
+        <v>4</v>
       </c>
       <c r="C223" t="s">
         <v>9</v>
@@ -4468,6 +5126,9 @@
       <c r="A224" t="s">
         <v>3</v>
       </c>
+      <c r="B224">
+        <v>4</v>
+      </c>
       <c r="C224" t="s">
         <v>9</v>
       </c>
@@ -4486,6 +5147,9 @@
       <c r="A225" t="s">
         <v>3</v>
       </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
       <c r="C225" t="s">
         <v>9</v>
       </c>
@@ -4504,6 +5168,9 @@
       <c r="A226" t="s">
         <v>3</v>
       </c>
+      <c r="B226">
+        <v>4</v>
+      </c>
       <c r="C226" t="s">
         <v>9</v>
       </c>
@@ -4522,6 +5189,9 @@
       <c r="A227" t="s">
         <v>3</v>
       </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
       <c r="C227" t="s">
         <v>9</v>
       </c>
@@ -4540,6 +5210,9 @@
       <c r="A228" t="s">
         <v>3</v>
       </c>
+      <c r="B228">
+        <v>4</v>
+      </c>
       <c r="C228" t="s">
         <v>9</v>
       </c>
@@ -4558,6 +5231,9 @@
       <c r="A229" t="s">
         <v>3</v>
       </c>
+      <c r="B229">
+        <v>4</v>
+      </c>
       <c r="C229" t="s">
         <v>9</v>
       </c>
@@ -4576,6 +5252,9 @@
       <c r="A230" t="s">
         <v>3</v>
       </c>
+      <c r="B230">
+        <v>4</v>
+      </c>
       <c r="C230" t="s">
         <v>9</v>
       </c>
@@ -4594,6 +5273,9 @@
       <c r="A231" t="s">
         <v>3</v>
       </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
       <c r="C231" t="s">
         <v>9</v>
       </c>
@@ -4612,6 +5294,9 @@
       <c r="A232" t="s">
         <v>3</v>
       </c>
+      <c r="B232">
+        <v>4</v>
+      </c>
       <c r="C232" t="s">
         <v>9</v>
       </c>
@@ -4630,6 +5315,9 @@
       <c r="A233" t="s">
         <v>3</v>
       </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
       <c r="C233" t="s">
         <v>9</v>
       </c>
@@ -4648,6 +5336,9 @@
       <c r="A234" t="s">
         <v>3</v>
       </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
       <c r="C234" t="s">
         <v>9</v>
       </c>
@@ -4666,6 +5357,9 @@
       <c r="A235" t="s">
         <v>3</v>
       </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
       <c r="C235" t="s">
         <v>9</v>
       </c>
@@ -4683,6 +5377,9 @@
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>3</v>
+      </c>
+      <c r="B236">
+        <v>4</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
